--- a/Módulo 1.xlsx
+++ b/Módulo 1.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HD Secundário\EduLiv\Excel-Extremo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96719787-F3DF-4DBD-8740-950F3C2B46CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A123755-36DD-403E-8DAA-0A59DB65C740}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19860" yWindow="3255" windowWidth="28800" windowHeight="11385" activeTab="1" xr2:uid="{48FA2976-659B-4704-B992-7AD7261455E3}"/>
+    <workbookView xWindow="9600" yWindow="3255" windowWidth="28800" windowHeight="11385" activeTab="1" xr2:uid="{48FA2976-659B-4704-B992-7AD7261455E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Módulo 1 - Bases" sheetId="1" r:id="rId1"/>
-    <sheet name="Como abrir pasta de trabalho" sheetId="2" r:id="rId2"/>
+    <sheet name="2. Como abrir pasta de trabalho" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Aula 1</t>
   </si>
@@ -62,6 +62,64 @@
   </si>
   <si>
     <t>Como renomear e alterar cores</t>
+  </si>
+  <si>
+    <t>Ao abrir o Excel, você abre a pasta de trabalho</t>
+  </si>
+  <si>
+    <t>Planilha são os quadriculados</t>
+  </si>
+  <si>
+    <t>Uma pasta de trabalho pode ter várias planilhas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pasta de trabalho: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Local onde as planilhas ficam salvas</t>
+    </r>
+  </si>
+  <si>
+    <t>Win + R -&gt; Digitar Excel</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Como salvar?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CTRL + B -&gt; Escolher entre salvar na nuvem ou no próprio dispositivo.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -505,14 +563,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F176E6A9-450F-4CB5-9F7D-36D1C8FC350F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="75.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>